--- a/Transfer Price SQL.xlsx
+++ b/Transfer Price SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6da363fccbc40e6/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AECA28A-10F6-417E-A764-F3D0AA6E14CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{9AECA28A-10F6-417E-A764-F3D0AA6E14CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C21D9C5-D550-4BF6-8780-91D5A726F86B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5C1AA71C-D321-4396-97FE-1561E5361C7B}"/>
+    <workbookView xWindow="25080" yWindow="-3585" windowWidth="16440" windowHeight="28440" xr2:uid="{5C1AA71C-D321-4396-97FE-1561E5361C7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
   <si>
     <t>Processamento</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>Start</t>
+  </si>
+  <si>
+    <t>Processamento Download</t>
+  </si>
+  <si>
+    <t>Descrição Download</t>
+  </si>
+  <si>
+    <t>Arquivo baixado com suscesso</t>
+  </si>
+  <si>
+    <t>Data Download</t>
   </si>
 </sst>
 </file>
@@ -217,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,11 +277,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -275,6 +290,12 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -590,895 +611,1000 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFEC3D6-94AA-4EC1-BDAD-71E31EDDCBB0}">
-  <dimension ref="A3:D74"/>
+  <dimension ref="A3:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>100</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>50</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>44075.583333333336</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>44075.583333333336</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="3">
+      <c r="C12" s="5"/>
+      <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
         <v>874</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>431</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="13">
         <v>44075.583333333336</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>44075.583333333336</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>44075.583333333336</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="6"/>
-      <c r="D24" s="3">
+      <c r="C24" s="5"/>
+      <c r="D24" s="2">
         <f>SUM(D14:D23)</f>
         <v>882</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>1022</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>431</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>44075.583333333336</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>44075.583333333336</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="6"/>
-      <c r="D36" s="3">
+      <c r="C36" s="5"/>
+      <c r="D36" s="2">
         <f>SUM(D26:D35)</f>
         <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>1345</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>235</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>23545</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>44075.583333333336</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>44075.583333333336</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="6"/>
-      <c r="D49" s="3">
+      <c r="C49" s="5"/>
+      <c r="D49" s="2">
         <f>SUM(D39:D48)</f>
         <v>1140</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1022</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3">
+        <v>235</v>
+      </c>
+      <c r="D53" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3">
+        <v>31531</v>
+      </c>
+      <c r="D54" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4">
+        <v>44075.583333333336</v>
+      </c>
+      <c r="D55" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="5"/>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="5"/>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="5"/>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C63" s="3">
         <v>1022</v>
       </c>
-      <c r="D53" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="D63" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C64" s="3">
         <v>3154</v>
       </c>
-      <c r="D54" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="D64" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C65" s="3">
         <v>31531</v>
       </c>
-      <c r="D55" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="D65" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="4">
-        <v>34</v>
-      </c>
-      <c r="D58" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="5">
-        <v>44075.583333333336</v>
-      </c>
-      <c r="D59" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="5">
-        <v>44075.583333333336</v>
-      </c>
-      <c r="D61" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="6"/>
-      <c r="D63" s="3">
-        <f>SUM(D53:D62)</f>
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="3">
+        <v>34</v>
+      </c>
+      <c r="D68" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="4">
+        <v>44075.583333333336</v>
+      </c>
+      <c r="D69" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="4">
+        <v>44075.583333333336</v>
+      </c>
+      <c r="D71" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="5"/>
+      <c r="D73" s="2">
+        <f>SUM(D63:D72)</f>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="str">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="str">
         <f>A3</f>
         <v>Parametros Processamento</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B78" s="3">
         <f>D12</f>
         <v>874</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C78" s="3">
         <v>50</v>
       </c>
-      <c r="D68" s="8">
-        <f>C68*B68/1024</f>
+      <c r="D78" s="7">
+        <f>C78*B78/1024</f>
         <v>42.67578125</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="str">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="str">
         <f>A14</f>
         <v>Arquivo</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B79" s="3">
         <f>D24</f>
         <v>882</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C79" s="3">
         <v>20</v>
       </c>
-      <c r="D69" s="8">
-        <f t="shared" ref="D69:D72" si="0">C69*B69/1024</f>
+      <c r="D79" s="7">
+        <f t="shared" ref="D79:D82" si="0">C79*B79/1024</f>
         <v>17.2265625</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="str">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="str">
         <f>A26</f>
         <v>Processamento</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B80" s="3">
         <f>D36</f>
         <v>383</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C80" s="3">
         <v>10</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D80" s="7">
         <f t="shared" si="0"/>
         <v>3.740234375</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="str">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="str">
         <f>A38</f>
         <v>Processamento Arquivo Domínio</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B81" s="3">
         <f>D49</f>
         <v>1140</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C81" s="3">
         <v>10</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D81" s="7">
         <f t="shared" si="0"/>
         <v>11.1328125</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="str">
-        <f>A51</f>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="str">
+        <f>A61</f>
         <v>Processamento Saida</v>
       </c>
-      <c r="B72" s="4">
-        <f>D63</f>
+      <c r="B82" s="3">
+        <f>D73</f>
         <v>1144</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C82" s="3">
         <v>400</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D82" s="7">
         <f t="shared" si="0"/>
         <v>446.875</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="3">
-        <f>SUM(B68:B72)</f>
+      <c r="B83" s="2">
+        <f>SUM(B78:B82)</f>
         <v>4423</v>
       </c>
-      <c r="C73" s="3">
-        <f t="shared" ref="C73:D73" si="1">SUM(C68:C72)</f>
+      <c r="C83" s="2">
+        <f t="shared" ref="C83:D83" si="1">SUM(C78:C82)</f>
         <v>490</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D83" s="8">
         <f t="shared" si="1"/>
         <v>521.650390625</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="10" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="9">
-        <f>D73*0.3</f>
+      <c r="D84" s="8">
+        <f>D83*0.3</f>
         <v>156.4951171875</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A66:D66"/>
+  <mergeCells count="7">
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A76:D76"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A50:D50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1" xr:uid="{11F93B07-BEDA-4A54-928F-6E6E5CB435AD}"/>
